--- a/Excel/working.xlsx
+++ b/Excel/working.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2484fbd99a7537b7/Desktop/Cinema_Data_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sayee\Data_Analysis_Sample1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_258FC34D82141C8E015FA3D24511F1E343B29B60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1801F8-E3AB-4F2F-9B94-7E0739AF43E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37796CE4-B0F2-4062-9141-93E3B10DA9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Month</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Feb to Mar</t>
+  </si>
+  <si>
+    <t>Mar to Apr</t>
+  </si>
+  <si>
+    <t>Percentage Change</t>
+  </si>
+  <si>
+    <t>Ticket (%)</t>
+  </si>
+  <si>
+    <t>Popcorn (%)</t>
+  </si>
+  <si>
+    <t>Soda (%)</t>
+  </si>
+  <si>
+    <t>Candy (%)</t>
   </si>
 </sst>
 </file>
@@ -252,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -267,6 +288,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -838,21 +864,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:J32"/>
+  <dimension ref="B5:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,8 +903,20 @@
       <c r="J5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>43497</v>
       </c>
@@ -904,8 +942,20 @@
         <f t="array" ref="J6">I6*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>82539</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>43525</v>
       </c>
@@ -931,8 +981,20 @@
         <f t="array" ref="J7">I7*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>48552</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>43556</v>
       </c>
@@ -958,8 +1020,20 @@
         <f t="array" ref="J8">I8*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>11037</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P8" s="15">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>43497</v>
       </c>
@@ -985,8 +1059,20 @@
         <f t="array" ref="J9">I9*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>86868</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="15">
+        <v>-0.05</v>
+      </c>
+      <c r="P9" s="15">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>43525</v>
       </c>
@@ -1012,8 +1098,20 @@
         <f t="array" ref="J10">I10*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>47012</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>43556</v>
       </c>
@@ -1039,8 +1137,20 @@
         <f t="array" ref="J11">I11*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>9838.4</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="P11" s="16">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>43497</v>
       </c>
@@ -1066,8 +1176,18 @@
         <f t="array" ref="J12">I12*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>78399</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="15">
+        <v>-0.03</v>
+      </c>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13" s="5">
         <v>43525</v>
       </c>
@@ -1094,7 +1214,7 @@
         <v>42862.399999999994</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="5">
         <v>43556</v>
       </c>
@@ -1121,7 +1241,7 @@
         <v>14788.800000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="F15" s="9">
         <v>43497</v>
       </c>
@@ -1139,7 +1259,7 @@
         <v>83920.2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1286,7 @@
         <v>60655</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1193,7 +1313,7 @@
         <v>16153.800000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1220,7 +1340,7 @@
         <v>75742.8</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1</v>
       </c>
@@ -1247,7 +1367,7 @@
         <v>59055.5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>2</v>
       </c>
@@ -1274,7 +1394,7 @@
         <v>14500.800000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>2</v>
       </c>
@@ -1301,7 +1421,7 @@
         <v>79506</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1328,7 +1448,7 @@
         <v>57715</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1355,7 +1475,7 @@
         <v>15293.1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>3</v>
       </c>
@@ -1382,7 +1502,7 @@
         <v>100396</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1409,7 +1529,7 @@
         <v>71927.099999999991</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F26" s="9">
         <v>43497</v>
       </c>
@@ -1427,7 +1547,7 @@
         <v>20938.410000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1568,7 @@
         <v>106844</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>1</v>
       </c>
@@ -1469,7 +1589,7 @@
         <v>75411</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>2</v>
       </c>
@@ -1490,7 +1610,7 @@
         <v>21887.100000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>3</v>
       </c>
@@ -1511,7 +1631,7 @@
         <v>103492</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F31" s="9">
         <v>43556</v>
       </c>
@@ -1529,7 +1649,7 @@
         <v>69608.7</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F32" s="12">
         <v>43556</v>
       </c>
@@ -1548,6 +1668,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O5:R5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/Excel/working.xlsx
+++ b/Excel/working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sayee\Data_Analysis_Sample1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37796CE4-B0F2-4062-9141-93E3B10DA9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B9984-DA62-41AB-9924-9B6AF6246E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>Month</t>
   </si>
@@ -68,25 +68,16 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Feb to Mar</t>
+    <t>Total Tickets Sold</t>
   </si>
   <si>
-    <t>Mar to Apr</t>
+    <t>Revenue Per Ticket</t>
   </si>
   <si>
-    <t>Percentage Change</t>
+    <t>Total Product Sales</t>
   </si>
   <si>
-    <t>Ticket (%)</t>
-  </si>
-  <si>
-    <t>Popcorn (%)</t>
-  </si>
-  <si>
-    <t>Soda (%)</t>
-  </si>
-  <si>
-    <t>Candy (%)</t>
+    <t>Total Concession Sales</t>
   </si>
 </sst>
 </file>
@@ -273,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -292,7 +283,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -551,6 +550,3491 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Tickets Sold</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$30:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F22-426A-9DA8-9A3044542842}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1668063728"/>
+        <c:axId val="1663623248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1668063728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663623248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1663623248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668063728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Concession Sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$39:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>118223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51B2-4E0C-A61D-818E3E4F9D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="966303760"/>
+        <c:axId val="1663610352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="966303760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663610352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1663610352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966303760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue Per Ticket</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68381233595800528"/>
+          <c:y val="0.17592592592592593"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$45:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.815951326423451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7644885781976649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9108564126896912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37C2-4449-9E3E-806BF28EC2AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1668064208"/>
+        <c:axId val="1663616304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1668064208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663616304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1663616304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668064208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Product Sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$39:$P$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>421896.60000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462542.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>589936.2699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1476-4915-A50B-663AEDE54197}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="966315280"/>
+        <c:axId val="1007007504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="966315280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1007007504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1007007504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966315280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1951055</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133873</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B46E7D-840E-7241-1EBE-FE01A7E1C825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2005483</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>203060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149572</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1291808-17F8-158F-0057-15CD2CFACE14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>623833</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>454267</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>86771</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE84967-DACC-7C48-651E-EFA43F31AF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>278422</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>307729</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124C251C-EB17-910C-61D3-7D3E766391AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Sales_Table" displayName="Sales_Table" ref="F5:J32" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="F5:J32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -596,6 +4080,50 @@
   <autoFilter ref="B27:B30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Cinema"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CC7E8320-850B-47D8-94F3-6EDD5ADB3714}" name="Table6" displayName="Table6" ref="L38:M41" totalsRowShown="0">
+  <autoFilter ref="L38:M41" xr:uid="{CC7E8320-850B-47D8-94F3-6EDD5ADB3714}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{64AA97FD-7C4D-4D7A-B692-775AB03385AC}" name="Cinema"/>
+    <tableColumn id="2" xr3:uid="{E03E70EF-9BA7-48B4-BB57-9197689FEA39}" name="Total Concession Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7947B0BE-7FB0-448D-93AA-EA570FDF51BF}" name="Table7" displayName="Table7" ref="O38:P41" totalsRowShown="0">
+  <autoFilter ref="O38:P41" xr:uid="{7947B0BE-7FB0-448D-93AA-EA570FDF51BF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E42B11C7-4534-4809-85C5-B480665CB3A4}" name="Cinema"/>
+    <tableColumn id="2" xr3:uid="{F91D6FDA-1A7C-4071-8AA1-D1AA403BF536}" name="Total Product Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BF4DD468-BA9C-4E92-8DFC-6A29D01EA7E0}" name="Table9" displayName="Table9" ref="L44:M47" totalsRowShown="0">
+  <autoFilter ref="L44:M47" xr:uid="{BF4DD468-BA9C-4E92-8DFC-6A29D01EA7E0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{33AA1346-989C-4578-8B7D-42945F9D26A1}" name="Cinema"/>
+    <tableColumn id="2" xr3:uid="{C93EC8B0-0067-41CB-89C1-3A52E8BA8A55}" name="Revenue Per Ticket"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D63C25B7-6C92-4D1F-99FE-3666870C26E0}" name="Table10" displayName="Table10" ref="L29:M32" totalsRowShown="0">
+  <autoFilter ref="L29:M32" xr:uid="{D63C25B7-6C92-4D1F-99FE-3666870C26E0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{78A18C73-E928-43C5-894D-9F580C329BEE}" name="Cinema"/>
+    <tableColumn id="2" xr3:uid="{B690C582-71FF-4BE4-9850-06174A2A12F3}" name="Total Tickets Sold"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -864,10 +4392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:R32"/>
+  <dimension ref="B5:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -876,9 +4404,14 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.53125" customWidth="1"/>
+    <col min="14" max="14" width="16.265625" customWidth="1"/>
+    <col min="15" max="15" width="32.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.796875" customWidth="1"/>
+    <col min="17" max="17" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,20 +4436,11 @@
       <c r="J5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>43497</v>
       </c>
@@ -942,20 +4466,8 @@
         <f t="array" ref="J6">I6*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>82539</v>
       </c>
-      <c r="O6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>43525</v>
       </c>
@@ -981,20 +4493,9 @@
         <f t="array" ref="J7">I7*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>48552</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0.05</v>
-      </c>
+      <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>43556</v>
       </c>
@@ -1020,20 +4521,9 @@
         <f t="array" ref="J8">I8*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>11037</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P8" s="15">
-        <v>-0.05</v>
-      </c>
+      <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>43497</v>
       </c>
@@ -1059,20 +4549,9 @@
         <f t="array" ref="J9">I9*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>86868</v>
       </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="15">
-        <v>-0.05</v>
-      </c>
-      <c r="P9" s="15">
-        <v>-0.1</v>
-      </c>
+      <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>43525</v>
       </c>
@@ -1098,20 +4577,9 @@
         <f t="array" ref="J10">I10*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>47012</v>
       </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0.09</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0.05</v>
-      </c>
+      <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>43556</v>
       </c>
@@ -1137,20 +4605,9 @@
         <f t="array" ref="J11">I11*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>9838.4</v>
       </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="15">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="P11" s="16">
-        <v>-5.0000000000000001E-3</v>
-      </c>
+      <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>43497</v>
       </c>
@@ -1176,18 +4633,9 @@
         <f t="array" ref="J12">I12*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>78399</v>
       </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="15">
-        <v>-0.03</v>
-      </c>
-      <c r="P12" s="15"/>
+      <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B13" s="5">
         <v>43525</v>
       </c>
@@ -1214,7 +4662,7 @@
         <v>42862.399999999994</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B14" s="5">
         <v>43556</v>
       </c>
@@ -1241,7 +4689,7 @@
         <v>14788.800000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="F15" s="9">
         <v>43497</v>
       </c>
@@ -1259,7 +4707,7 @@
         <v>83920.2</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +4734,7 @@
         <v>60655</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1313,7 +4761,7 @@
         <v>16153.800000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1340,7 +4788,7 @@
         <v>75742.8</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1</v>
       </c>
@@ -1367,7 +4815,7 @@
         <v>59055.5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>2</v>
       </c>
@@ -1394,7 +4842,7 @@
         <v>14500.800000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>2</v>
       </c>
@@ -1421,7 +4869,7 @@
         <v>79506</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>2</v>
       </c>
@@ -1448,7 +4896,7 @@
         <v>57715</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1475,7 +4923,7 @@
         <v>15293.1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>3</v>
       </c>
@@ -1502,7 +4950,7 @@
         <v>100396</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1529,7 +4977,7 @@
         <v>71927.099999999991</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="F26" s="9">
         <v>43497</v>
       </c>
@@ -1547,7 +4995,7 @@
         <v>20938.410000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +5016,7 @@
         <v>106844</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>1</v>
       </c>
@@ -1589,7 +5037,7 @@
         <v>75411</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>2</v>
       </c>
@@ -1609,8 +5057,14 @@
         <f t="array" ref="J29">I29*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>21887.100000000002</v>
       </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>3</v>
       </c>
@@ -1630,8 +5084,17 @@
         <f t="array" ref="J30">I30*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>103492</v>
       </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>87604</v>
+      </c>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="F31" s="9">
         <v>43556</v>
       </c>
@@ -1648,8 +5111,14 @@
         <f t="array" ref="J31">I31*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>69608.7</v>
       </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>68378</v>
+      </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="F32" s="12">
         <v>43556</v>
       </c>
@@ -1666,21 +5135,162 @@
         <f t="array" ref="J32">I32*INDEX(Food_Cost[],MATCH(Sales_Table[[#This Row],[Cinema]]&amp;Sales_Table[[#This Row],[Product]],Food_Cost[Cinema]&amp;Food_Cost[Product],0),3)</f>
         <v>19431.960000000003</v>
       </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>120129</v>
+      </c>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f>SUM(I6:I14)</f>
+        <v>118223</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>421896.60000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <f>SUM(I15:I23)</f>
+        <v>123760</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>462542.19999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <f>SUM(I24:I32)</f>
+        <v>171558</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>589936.2699999999</v>
+      </c>
+    </row>
+    <row r="44" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>4.815951326423451</v>
+      </c>
+    </row>
+    <row r="46" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>6.7644885781976649</v>
+      </c>
+    </row>
+    <row r="47" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>4.9108564126896912</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J34:J36">
+    <sortCondition descending="1" ref="J34:J36"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O30:Q30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;6&amp;K737373BUSINESS DOCUMENT  This document is intended for business use and should be distributed to intended recipients only.</oddFooter>
   </headerFooter>
-  <tableParts count="4">
-    <tablePart r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="8">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>